--- a/Molecules-data/smiles_prop_3xtr_WithTokenMol.xlsx
+++ b/Molecules-data/smiles_prop_3xtr_WithTokenMol.xlsx
@@ -37,140 +37,143 @@
     <t>pixels</t>
   </si>
   <si>
-    <t>O=C(Nc1cccc2ccccc12)c1cc2cc(Cl)ccc2oc1=O</t>
-  </si>
-  <si>
-    <t>['O', '=', 'C', '(', 'N', 'c', '1', 'c', 'c', 'c', 'c', '2', 'c', 'c', 'c', 'c', 'c', '1', '2', ')', 'c', '1', 'c', 'c', '2', 'c', 'c', '(', 'Cl', ')', 'c', 'c', 'c', '2', 'o', 'c', '1', '=', 'O']</t>
+    <t>CCOC(=O)C1=C(C)NC(=S)N[C@H]1c1cccc([N+](=O)[O-])c1</t>
+  </si>
+  <si>
+    <t>['C', 'C', 'O', 'C', '(', '=', 'O', ')', 'C', '1', '=', 'C', '(', 'C', ')', 'N', 'C', '(', '=', 'S', ')', 'N', '[C@H]', '1', 'c', '1', 'c', 'c', 'c', 'c', '(', '[N+]', '(', '=', 'O', ')', '[O-]', ')', 'c', '1']</t>
   </si>
   <si>
     <t>[[1 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [1 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [1 0 0 0 0 0 0 0 0 0 0 0 0 0]
  [0 0 1 0 0 0 0 0 0 0 0 0 0 0]
  [0 0 0 1 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 1 0 0 0 0 0 0 0 0 0]
+ [0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 1 0 0 0 0 0 0 0 0 0]
+ [1 0 0 0 0 0 0 0 0 0 0 0 0 0]
  [0 0 0 0 0 1 0 0 0 0 0 0 0 0]
+ [0 0 0 1 0 0 0 0 0 0 0 0 0 0]
+ [1 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 1 0 0 0 0 0 0 0 0 0 0 0]
+ [1 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 1 0 0 0 0 0 0 0 0 0]
  [0 0 0 0 0 0 1 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0]
+ [1 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 1 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 1 0 0 0 0 0 0 0 0 0 0]
  [0 0 0 0 0 0 0 1 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0]
+ [0 0 0 0 1 0 0 0 0 0 0 0 0 0]
  [0 0 0 0 0 0 1 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 1 0 0 0 0 0 0]
  [0 0 0 0 0 0 0 0 1 0 0 0 0 0]
  [0 0 0 0 0 1 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 1 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 1 0 0 0 0]
  [0 0 0 0 0 1 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 1 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 1 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 1 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 1 0 0 0 0]
+ [0 0 1 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 1 0 0 0]
+ [0 0 1 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 1 0 0 0 0 0 0 0 0 0 0]
+ [0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 1 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 1 0 0]
+ [0 0 0 0 1 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 1 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0]]</t>
+  </si>
+  <si>
+    <t>COC(=O)c1ccccc1OC(=O)C(C)C</t>
+  </si>
+  <si>
+    <t>['C', 'O', 'C', '(', '=', 'O', ')', 'c', '1', 'c', 'c', 'c', 'c', 'c', '1', 'O', 'C', '(', '=', 'O', ')', 'C', '(', 'C', ')', 'C']</t>
+  </si>
+  <si>
+    <t>[[1 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [1 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 1 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 1 0 0 0 0 0 0 0 0 0 0]
+ [0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 1 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 1 0 0 0 0]
  [0 0 0 0 0 1 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 1 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 1 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 1 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 1 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 1 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 1 0 0 0 0]
  [0 0 0 0 0 1 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0]
+ [0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [1 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 1 0 0 0 0 0 0 0 0 0 0 0]
  [0 0 0 1 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 1 0 0 0 0]
- [0 0 0 0 0 0 0 0 1 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 1 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 1 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 1 0 0 0 0 0 0 0]
- [0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [1 0 0 0 0 0 0 0 0 0 0 0 0 0]]</t>
-  </si>
-  <si>
-    <t>CC(C)Cc1ccc(S(=O)(=O)N2CCCc3ccccc32)cc1</t>
-  </si>
-  <si>
-    <t>['C', 'C', '(', 'C', ')', 'C', 'c', '1', 'c', 'c', 'c', '(', 'S', '(', '=', 'O', ')', '(', '=', 'O', ')', 'N', '2', 'C', 'C', 'C', 'c', '3', 'c', 'c', 'c', 'c', 'c', '3', '2', ')', 'c', 'c', '1']</t>
-  </si>
-  <si>
-    <t>[[0 0 1 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 1 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 1 0 0 0 0 0 0 0 0 0 0]
- [0 0 1 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 1 0 0 0 0 0]
- [0 0 1 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 1 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0]
- [0 0 0 1 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 1 0 0]
- [0 0 0 1 0 0 0 0 0 0 0 0 0 0]
- [0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [1 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 1 0 0 0 0 0]
- [0 0 0 1 0 0 0 0 0 0 0 0 0 0]
- [0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [1 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 1 0 0 0 0 0]
- [0 0 0 0 1 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 1 0 0 0 0 0 0]
- [0 0 1 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 1 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 1 0 0 0 0 0 0 0 0 0 0 0]
+ [0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 1 0 0 0 0 0 0 0 0 0]
+ [1 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 1 0 0 0 0 0 0 0 0 0 0 0]
+ [1 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 1 0 0 0 0 0 0 0 0 0]
+ [1 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0]]</t>
+  </si>
+  <si>
+    <t>CCCc1nc(SCC(=O)N2CCOCC2)c2ccccc2n1</t>
+  </si>
+  <si>
+    <t>['C', 'C', 'C', 'c', '1', 'n', 'c', '(', 'S', 'C', 'C', '(', '=', 'O', ')', 'N', '2', 'C', 'C', 'O', 'C', 'C', '2', ')', 'c', '2', 'c', 'c', 'c', 'c', 'c', '2', 'n', '1']</t>
+  </si>
+  <si>
+    <t>[[1 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [1 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [1 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 1 0 0 0 0]
  [0 0 0 0 0 1 0 0 0 0 0 0 0 0]
  [0 0 0 0 0 0 0 0 0 0 0 0 1 0]
+ [0 0 0 0 0 0 0 0 0 1 0 0 0 0]
+ [0 0 1 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 1 0 0 0 0 0 0]
+ [1 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [1 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 1 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 1 0 0 0 0 0 0 0 0 0 0]
+ [0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 1 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 1 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 1]
+ [1 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [1 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [1 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [1 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 1]
+ [0 0 0 0 1 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 1 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 1]
+ [0 0 0 0 0 0 0 0 0 1 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 1 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 1 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 1 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 1 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 1]
+ [0 0 0 0 0 0 0 0 0 0 0 0 1 0]
  [0 0 0 0 0 1 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 1 0]
- [0 0 0 0 0 0 0 1 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 1 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 1 0 0 0 0 0 0 0]]</t>
-  </si>
-  <si>
-    <t>CNC(=O)/C(=C/c1ccco1)NC(=O)c1ccco1</t>
-  </si>
-  <si>
-    <t>['C', 'N', 'C', '(', '=', 'O', ')', '/', 'C', '(', '=', 'C', '/', 'c', '1', 'c', 'c', 'c', 'o', '1', ')', 'N', 'C', '(', '=', 'O', ')', 'c', '1', 'c', 'c', 'c', 'o', '1']</t>
-  </si>
-  <si>
-    <t>[[0 0 1 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 1 0 0 0 0 0 0 0 0 0]
- [0 0 1 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 1 0 0 0 0 0 0 0 0 0 0]
- [0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [1 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 1 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 1]
- [0 0 1 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 1 0 0 0 0 0 0 0 0 0 0]
- [0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 1 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 1]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 1 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 1 0 0 0]
- [0 0 0 0 0 0 1 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 1 0 0 0 0 0]
- [0 0 0 0 1 0 0 0 0 0 0 0 0 0]
- [0 0 1 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 1 0 0 0 0 0 0 0 0 0 0]
- [0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [1 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 1 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 1 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 1 0 0 0]
- [0 0 0 0 0 0 1 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0]
  [0 0 0 0 0 0 0 0 0 0 0 0 0 0]
  [0 0 0 0 0 0 0 0 0 0 0 0 0 0]
  [0 0 0 0 0 0 0 0 0 0 0 0 0 0]
@@ -663,13 +666,13 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>349.050570924</v>
+        <v>321.07832696</v>
       </c>
       <c r="D2">
-        <v>4.8519</v>
+        <v>1.9507</v>
       </c>
       <c r="E2">
-        <v>59.31</v>
+        <v>93.5</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -686,13 +689,13 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>329.144949976</v>
+        <v>222.089208928</v>
       </c>
       <c r="D3">
-        <v>4.0266</v>
+        <v>2.0346</v>
       </c>
       <c r="E3">
-        <v>37.38</v>
+        <v>52.6</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -709,13 +712,13 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>260.079706864</v>
+        <v>331.135447912</v>
       </c>
       <c r="D4">
-        <v>1.3895</v>
+        <v>2.5332</v>
       </c>
       <c r="E4">
-        <v>84.48</v>
+        <v>55.32</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>

--- a/Molecules-data/smiles_prop_3xtr_WithTokenMol.xlsx
+++ b/Molecules-data/smiles_prop_3xtr_WithTokenMol.xlsx
@@ -37,148 +37,142 @@
     <t>pixels</t>
   </si>
   <si>
-    <t>CCOC(=O)C1=C(C)NC(=S)N[C@H]1c1cccc([N+](=O)[O-])c1</t>
-  </si>
-  <si>
-    <t>['C', 'C', 'O', 'C', '(', '=', 'O', ')', 'C', '1', '=', 'C', '(', 'C', ')', 'N', 'C', '(', '=', 'S', ')', 'N', '[C@H]', '1', 'c', '1', 'c', 'c', 'c', 'c', '(', '[N+]', '(', '=', 'O', ')', '[O-]', ')', 'c', '1']</t>
-  </si>
-  <si>
-    <t>[[1 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [1 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [1 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 1 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 1 0 0 0 0 0 0 0 0 0 0]
- [0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 1 0 0 0 0 0 0 0 0 0]
- [1 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0]
- [0 0 0 1 0 0 0 0 0 0 0 0 0 0]
- [1 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 1 0 0 0 0 0 0 0 0 0 0 0]
- [1 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 1 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 1 0 0 0 0 0 0 0]
- [1 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 1 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 1 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 1 0 0 0 0 0 0]
- [0 0 0 0 1 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 1 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 1 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 1 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 1 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 1 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 1 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 1 0 0 0 0]
- [0 0 1 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 1 0 0 0]
- [0 0 1 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 1 0 0 0 0 0 0 0 0 0 0]
- [0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 1 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 1 0 0]
- [0 0 0 0 1 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 1 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0]]</t>
-  </si>
-  <si>
-    <t>COC(=O)c1ccccc1OC(=O)C(C)C</t>
-  </si>
-  <si>
-    <t>['C', 'O', 'C', '(', '=', 'O', ')', 'c', '1', 'c', 'c', 'c', 'c', 'c', '1', 'O', 'C', '(', '=', 'O', ')', 'C', '(', 'C', ')', 'C']</t>
-  </si>
-  <si>
-    <t>[[1 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [1 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 1 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 1 0 0 0 0 0 0 0 0 0 0]
- [0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 1 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 1 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 1 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 1 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 1 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 1 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 1 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0]
- [0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [1 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 1 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 1 0 0 0 0 0 0 0 0 0 0]
- [0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 1 0 0 0 0 0 0 0 0 0]
- [1 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 1 0 0 0 0 0 0 0 0 0 0 0]
- [1 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 1 0 0 0 0 0 0 0 0 0]
- [1 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0]]</t>
-  </si>
-  <si>
-    <t>CCCc1nc(SCC(=O)N2CCOCC2)c2ccccc2n1</t>
-  </si>
-  <si>
-    <t>['C', 'C', 'C', 'c', '1', 'n', 'c', '(', 'S', 'C', 'C', '(', '=', 'O', ')', 'N', '2', 'C', 'C', 'O', 'C', 'C', '2', ')', 'c', '2', 'c', 'c', 'c', 'c', 'c', '2', 'n', '1']</t>
-  </si>
-  <si>
-    <t>[[1 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [1 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [1 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 1 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 1 0]
- [0 0 0 0 0 0 0 0 0 1 0 0 0 0]
- [0 0 1 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 1 0 0 0 0 0 0]
- [1 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [1 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 1 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 1 0 0 0 0 0 0 0 0 0 0]
- [0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 1 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 1 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 1]
- [1 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [1 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [1 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [1 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 1]
- [0 0 0 0 1 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 1 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 1]
- [0 0 0 0 0 0 0 0 0 1 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 1 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 1 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 1 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 1 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 1]
- [0 0 0 0 0 0 0 0 0 0 0 0 1 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0]]</t>
+    <t>O=C(C[C@@H](C(=O)[O-])[C@H]1CCCO1)Nc1ccccc1</t>
+  </si>
+  <si>
+    <t>['O', '=', 'C', '(', 'C', '[C@@H]', '(', 'C', '(', '=', 'O', ')', '[O-]', ')', '[C@H]', '1', 'C', 'C', 'C', 'O', '1', ')', 'N', 'c', '1', 'c', 'c', 'c', 'c', 'c', '1']</t>
+  </si>
+  <si>
+    <t>[[1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 1 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 1 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 1 0 0 0 0 0 0 0 0 0]
+ [0 0 1 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 1 0 0 0 0 0 0 0 0]
+ [0 0 0 1 0 0 0 0 0 0 0 0 0]
+ [0 0 1 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 1 0 0 0 0 0 0 0 0 0]
+ [0 1 0 0 0 0 0 0 0 0 0 0 0]
+ [1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 1 0 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 1 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 1 0 0 0 0]
+ [0 0 1 0 0 0 0 0 0 0 0 0 0]
+ [0 0 1 0 0 0 0 0 0 0 0 0 0]
+ [0 0 1 0 0 0 0 0 0 0 0 0 0]
+ [1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 1 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 1 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 1 0 0]
+ [0 0 0 0 0 0 0 0 1 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 1 0 0]
+ [0 0 0 0 0 0 0 0 0 0 1 0 0]
+ [0 0 0 0 0 0 0 0 0 0 1 0 0]
+ [0 0 0 0 0 0 0 0 0 0 1 0 0]
+ [0 0 0 0 0 0 0 0 0 0 1 0 0]
+ [0 0 0 0 0 0 0 0 1 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0]]</t>
+  </si>
+  <si>
+    <t>CC[C@H](C)[C@H](C(=O)OC1CC[N+](C)(C)CC1)c1ccccc1</t>
+  </si>
+  <si>
+    <t>['C', 'C', '[C@H]', '(', 'C', ')', '[C@H]', '(', 'C', '(', '=', 'O', ')', 'O', 'C', '1', 'C', 'C', '[N+]', '(', 'C', ')', '(', 'C', ')', 'C', 'C', '1', ')', 'c', '1', 'c', 'c', 'c', 'c', 'c', '1']</t>
+  </si>
+  <si>
+    <t>[[0 0 1 0 0 0 0 0 0 0 0 0 0]
+ [0 0 1 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 1 0 0 0 0 0]
+ [0 0 0 1 0 0 0 0 0 0 0 0 0]
+ [0 0 1 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 1 0 0 0 0 0]
+ [0 0 0 1 0 0 0 0 0 0 0 0 0]
+ [0 0 1 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 1 0 0 0 0 0 0 0 0 0]
+ [0 1 0 0 0 0 0 0 0 0 0 0 0]
+ [1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0]
+ [1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 1 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 1 0 0 0 0]
+ [0 0 1 0 0 0 0 0 0 0 0 0 0]
+ [0 0 1 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 1 0]
+ [0 0 0 1 0 0 0 0 0 0 0 0 0]
+ [0 0 1 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0]
+ [0 0 0 1 0 0 0 0 0 0 0 0 0]
+ [0 0 1 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0]
+ [0 0 1 0 0 0 0 0 0 0 0 0 0]
+ [0 0 1 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 1 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 1 0 0]
+ [0 0 0 0 0 0 0 0 1 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 1 0 0]
+ [0 0 0 0 0 0 0 0 0 0 1 0 0]
+ [0 0 0 0 0 0 0 0 0 0 1 0 0]
+ [0 0 0 0 0 0 0 0 0 0 1 0 0]
+ [0 0 0 0 0 0 0 0 0 0 1 0 0]
+ [0 0 0 0 0 0 0 0 1 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0]]</t>
+  </si>
+  <si>
+    <t>O=C(Nc1cccc2ccccc12)C1(c2ccccc2)CCOCC1</t>
+  </si>
+  <si>
+    <t>['O', '=', 'C', '(', 'N', 'c', '1', 'c', 'c', 'c', 'c', '2', 'c', 'c', 'c', 'c', 'c', '1', '2', ')', 'C', '1', '(', 'c', '2', 'c', 'c', 'c', 'c', 'c', '2', ')', 'C', 'C', 'O', 'C', 'C', '1']</t>
+  </si>
+  <si>
+    <t>[[1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 1 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 1 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 1 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 1 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 1 0 0]
+ [0 0 0 0 0 0 0 0 1 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 1 0 0]
+ [0 0 0 0 0 0 0 0 0 0 1 0 0]
+ [0 0 0 0 0 0 0 0 0 0 1 0 0]
+ [0 0 0 0 0 0 0 0 0 0 1 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 1]
+ [0 0 0 0 0 0 0 0 0 0 1 0 0]
+ [0 0 0 0 0 0 0 0 0 0 1 0 0]
+ [0 0 0 0 0 0 0 0 0 0 1 0 0]
+ [0 0 0 0 0 0 0 0 0 0 1 0 0]
+ [0 0 0 0 0 0 0 0 0 0 1 0 0]
+ [0 0 0 0 0 0 0 0 1 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 1]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0]
+ [0 0 1 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 1 0 0 0 0]
+ [0 0 0 1 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 1 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 1]
+ [0 0 0 0 0 0 0 0 0 0 1 0 0]
+ [0 0 0 0 0 0 0 0 0 0 1 0 0]
+ [0 0 0 0 0 0 0 0 0 0 1 0 0]
+ [0 0 0 0 0 0 0 0 0 0 1 0 0]
+ [0 0 0 0 0 0 0 0 0 0 1 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 1]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0]
+ [0 0 1 0 0 0 0 0 0 0 0 0 0]
+ [0 0 1 0 0 0 0 0 0 0 0 0 0]
+ [1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 1 0 0 0 0 0 0 0 0 0 0]
+ [0 0 1 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 1 0 0 0 0]]</t>
   </si>
 </sst>
 </file>
@@ -666,13 +660,13 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>321.07832696</v>
+        <v>262.10848157191</v>
       </c>
       <c r="D2">
-        <v>1.9507</v>
+        <v>0.5603</v>
       </c>
       <c r="E2">
-        <v>93.5</v>
+        <v>78.45999999999999</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -689,13 +683,13 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>222.089208928</v>
+        <v>304.22710562009</v>
       </c>
       <c r="D3">
-        <v>2.0346</v>
+        <v>3.5983</v>
       </c>
       <c r="E3">
-        <v>52.6</v>
+        <v>26.3</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -712,13 +706,13 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>331.135447912</v>
+        <v>331.157228912</v>
       </c>
       <c r="D4">
-        <v>2.5332</v>
+        <v>4.5267</v>
       </c>
       <c r="E4">
-        <v>55.32</v>
+        <v>38.33</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>

--- a/Molecules-data/smiles_prop_3xtr_WithTokenMol.xlsx
+++ b/Molecules-data/smiles_prop_3xtr_WithTokenMol.xlsx
@@ -37,142 +37,193 @@
     <t>pixels</t>
   </si>
   <si>
-    <t>O=C(C[C@@H](C(=O)[O-])[C@H]1CCCO1)Nc1ccccc1</t>
-  </si>
-  <si>
-    <t>['O', '=', 'C', '(', 'C', '[C@@H]', '(', 'C', '(', '=', 'O', ')', '[O-]', ')', '[C@H]', '1', 'C', 'C', 'C', 'O', '1', ')', 'N', 'c', '1', 'c', 'c', 'c', 'c', 'c', '1']</t>
-  </si>
-  <si>
-    <t>[[1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 1 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 1 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 1 0 0 0 0 0 0 0 0 0]
- [0 0 1 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 1 0 0 0 0 0 0 0 0]
- [0 0 0 1 0 0 0 0 0 0 0 0 0]
- [0 0 1 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 1 0 0 0 0 0 0 0 0 0]
- [0 1 0 0 0 0 0 0 0 0 0 0 0]
- [1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 1 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 1 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 1 0 0 0 0]
- [0 0 1 0 0 0 0 0 0 0 0 0 0]
- [0 0 1 0 0 0 0 0 0 0 0 0 0]
- [0 0 1 0 0 0 0 0 0 0 0 0 0]
- [1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 1 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 1 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 1 0 0]
- [0 0 0 0 0 0 0 0 1 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 1 0 0]
- [0 0 0 0 0 0 0 0 0 0 1 0 0]
- [0 0 0 0 0 0 0 0 0 0 1 0 0]
- [0 0 0 0 0 0 0 0 0 0 1 0 0]
- [0 0 0 0 0 0 0 0 0 0 1 0 0]
- [0 0 0 0 0 0 0 0 1 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0]]</t>
-  </si>
-  <si>
-    <t>CC[C@H](C)[C@H](C(=O)OC1CC[N+](C)(C)CC1)c1ccccc1</t>
-  </si>
-  <si>
-    <t>['C', 'C', '[C@H]', '(', 'C', ')', '[C@H]', '(', 'C', '(', '=', 'O', ')', 'O', 'C', '1', 'C', 'C', '[N+]', '(', 'C', ')', '(', 'C', ')', 'C', 'C', '1', ')', 'c', '1', 'c', 'c', 'c', 'c', 'c', '1']</t>
-  </si>
-  <si>
-    <t>[[0 0 1 0 0 0 0 0 0 0 0 0 0]
- [0 0 1 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 1 0 0 0 0 0]
- [0 0 0 1 0 0 0 0 0 0 0 0 0]
- [0 0 1 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 1 0 0 0 0 0]
- [0 0 0 1 0 0 0 0 0 0 0 0 0]
- [0 0 1 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 1 0 0 0 0 0 0 0 0 0]
- [0 1 0 0 0 0 0 0 0 0 0 0 0]
- [1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0]
- [1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 1 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 1 0 0 0 0]
- [0 0 1 0 0 0 0 0 0 0 0 0 0]
- [0 0 1 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 1 0]
- [0 0 0 1 0 0 0 0 0 0 0 0 0]
- [0 0 1 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0]
- [0 0 0 1 0 0 0 0 0 0 0 0 0]
- [0 0 1 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0]
- [0 0 1 0 0 0 0 0 0 0 0 0 0]
- [0 0 1 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 1 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 1 0 0]
- [0 0 0 0 0 0 0 0 1 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 1 0 0]
- [0 0 0 0 0 0 0 0 0 0 1 0 0]
- [0 0 0 0 0 0 0 0 0 0 1 0 0]
- [0 0 0 0 0 0 0 0 0 0 1 0 0]
- [0 0 0 0 0 0 0 0 0 0 1 0 0]
- [0 0 0 0 0 0 0 0 1 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0]]</t>
-  </si>
-  <si>
-    <t>O=C(Nc1cccc2ccccc12)C1(c2ccccc2)CCOCC1</t>
-  </si>
-  <si>
-    <t>['O', '=', 'C', '(', 'N', 'c', '1', 'c', 'c', 'c', 'c', '2', 'c', 'c', 'c', 'c', 'c', '1', '2', ')', 'C', '1', '(', 'c', '2', 'c', 'c', 'c', 'c', 'c', '2', ')', 'C', 'C', 'O', 'C', 'C', '1']</t>
-  </si>
-  <si>
-    <t>[[1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 1 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 1 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 1 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 1 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 1 0 0]
- [0 0 0 0 0 0 0 0 1 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 1 0 0]
- [0 0 0 0 0 0 0 0 0 0 1 0 0]
- [0 0 0 0 0 0 0 0 0 0 1 0 0]
- [0 0 0 0 0 0 0 0 0 0 1 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 1]
- [0 0 0 0 0 0 0 0 0 0 1 0 0]
- [0 0 0 0 0 0 0 0 0 0 1 0 0]
- [0 0 0 0 0 0 0 0 0 0 1 0 0]
- [0 0 0 0 0 0 0 0 0 0 1 0 0]
- [0 0 0 0 0 0 0 0 0 0 1 0 0]
- [0 0 0 0 0 0 0 0 1 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 1]
- [0 0 0 0 0 1 0 0 0 0 0 0 0]
- [0 0 1 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 1 0 0 0 0]
- [0 0 0 1 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 1 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 1]
- [0 0 0 0 0 0 0 0 0 0 1 0 0]
- [0 0 0 0 0 0 0 0 0 0 1 0 0]
- [0 0 0 0 0 0 0 0 0 0 1 0 0]
- [0 0 0 0 0 0 0 0 0 0 1 0 0]
- [0 0 0 0 0 0 0 0 0 0 1 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 1]
- [0 0 0 0 0 1 0 0 0 0 0 0 0]
- [0 0 1 0 0 0 0 0 0 0 0 0 0]
- [0 0 1 0 0 0 0 0 0 0 0 0 0]
- [1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 1 0 0 0 0 0 0 0 0 0 0]
- [0 0 1 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 1 0 0 0 0]]</t>
+    <t>CC1=C(C(=O)Nc2ccccc2)[C@@H](c2ccc([N+](=O)[O-])cc2)C2=C(CCCC2=O)N1</t>
+  </si>
+  <si>
+    <t>['C', 'C', '1', '=', 'C', '(', 'C', '(', '=', 'O', ')', 'N', 'c', '2', 'c', 'c', 'c', 'c', 'c', '2', ')', '[C@@H]', '(', 'c', '2', 'c', 'c', 'c', '(', '[N+]', '(', '=', 'O', ')', '[O-]', ')', 'c', 'c', '2', ')', 'C', '2', '=', 'C', '(', 'C', 'C', 'C', 'C', '2', '=', 'O', ')', 'N', '1']</t>
+  </si>
+  <si>
+    <t>[[1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0]
+ [0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0]
+ [0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0]
+ [0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0]
+ [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0]
+ [0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0]
+ [0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0]
+ [0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0]]</t>
+  </si>
+  <si>
+    <t>O=C(c1ccncc1)N1CC[NH+](Cc2cccc(Br)c2)CC1</t>
+  </si>
+  <si>
+    <t>['O', '=', 'C', '(', 'c', '1', 'c', 'c', 'n', 'c', 'c', '1', ')', 'N', '1', 'C', 'C', '[NH+]', '(', 'C', 'c', '2', 'c', 'c', 'c', 'c', '(', 'Br', ')', 'c', '2', ')', 'C', 'C', '1']</t>
+  </si>
+  <si>
+    <t>[[0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0]
+ [0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0]
+ [0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0]
+ [0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0]
+ [0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0]
+ [0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0]
+ [0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0]
+ [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]]</t>
+  </si>
+  <si>
+    <t>C[C@@H]1CN(C(=O)C2CCC2)[C@H](C)CN1C(=O)C1CCC1</t>
+  </si>
+  <si>
+    <t>['C', '[C@@H]', '1', 'C', 'N', '(', 'C', '(', '=', 'O', ')', 'C', '2', 'C', 'C', 'C', '2', ')', '[C@H]', '(', 'C', ')', 'C', 'N', '1', 'C', '(', '=', 'O', ')', 'C', '1', 'C', 'C', 'C', '1']</t>
+  </si>
+  <si>
+    <t>[[1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0]
+ [0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0]
+ [0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0]
+ [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0]
+ [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1]
+ [0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0]
+ [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0]
+ [0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0]
+ [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]]</t>
   </si>
 </sst>
 </file>
@@ -660,13 +711,13 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>262.10848157191</v>
+        <v>403.153206152</v>
       </c>
       <c r="D2">
-        <v>0.5603</v>
+        <v>4.2014</v>
       </c>
       <c r="E2">
-        <v>78.45999999999999</v>
+        <v>101.34</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -683,13 +734,13 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>304.22710562009</v>
+        <v>360.07060074809</v>
       </c>
       <c r="D3">
-        <v>3.5983</v>
+        <v>1.385</v>
       </c>
       <c r="E3">
-        <v>26.3</v>
+        <v>37.64</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -706,13 +757,13 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>331.157228912</v>
+        <v>278.199428072</v>
       </c>
       <c r="D4">
-        <v>4.5267</v>
+        <v>2.0344</v>
       </c>
       <c r="E4">
-        <v>38.33</v>
+        <v>40.62</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>

--- a/Molecules-data/smiles_prop_3xtr_WithTokenMol.xlsx
+++ b/Molecules-data/smiles_prop_3xtr_WithTokenMol.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Smiles</t>
   </si>
@@ -37,193 +37,52 @@
     <t>pixels</t>
   </si>
   <si>
-    <t>CC1=C(C(=O)Nc2ccccc2)[C@@H](c2ccc([N+](=O)[O-])cc2)C2=C(CCCC2=O)N1</t>
-  </si>
-  <si>
-    <t>['C', 'C', '1', '=', 'C', '(', 'C', '(', '=', 'O', ')', 'N', 'c', '2', 'c', 'c', 'c', 'c', 'c', '2', ')', '[C@@H]', '(', 'c', '2', 'c', 'c', 'c', '(', '[N+]', '(', '=', 'O', ')', '[O-]', ')', 'c', 'c', '2', ')', 'C', '2', '=', 'C', '(', 'C', 'C', 'C', 'C', '2', '=', 'O', ')', 'N', '1']</t>
-  </si>
-  <si>
-    <t>[[1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0]
- [0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0]
- [0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0]
- [0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0]
- [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0]
- [0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0]
- [0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0]
- [0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0]]</t>
-  </si>
-  <si>
-    <t>O=C(c1ccncc1)N1CC[NH+](Cc2cccc(Br)c2)CC1</t>
-  </si>
-  <si>
-    <t>['O', '=', 'C', '(', 'c', '1', 'c', 'c', 'n', 'c', 'c', '1', ')', 'N', '1', 'C', 'C', '[NH+]', '(', 'C', 'c', '2', 'c', 'c', 'c', 'c', '(', 'Br', ')', 'c', '2', ')', 'C', 'C', '1']</t>
-  </si>
-  <si>
-    <t>[[0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0]
- [0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0]
- [0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0]
- [0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0]
- [0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0]
- [0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0]
- [0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0]
- [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]]</t>
-  </si>
-  <si>
-    <t>C[C@@H]1CN(C(=O)C2CCC2)[C@H](C)CN1C(=O)C1CCC1</t>
-  </si>
-  <si>
-    <t>['C', '[C@@H]', '1', 'C', 'N', '(', 'C', '(', '=', 'O', ')', 'C', '2', 'C', 'C', 'C', '2', ')', '[C@H]', '(', 'C', ')', 'C', 'N', '1', 'C', '(', '=', 'O', ')', 'C', '1', 'C', 'C', 'C', '1']</t>
-  </si>
-  <si>
-    <t>[[1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0]
- [0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0]
- [0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0]
- [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0]
- [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1]
- [0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0]
- [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0]
- [0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0]
- [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]]</t>
+    <t>ROMol</t>
+  </si>
+  <si>
+    <t>C[C@@H]1CCCN(C(=O)CSc2nnc(-c3ccc(S(=O)(=O)N4CCOCC4)cc3)n2C)C1</t>
+  </si>
+  <si>
+    <t>['C', '[C@@H]', '1', 'C', 'C', 'C', 'N', '(', 'C', '(', '=', 'O', ')', 'C', 'S', 'c', '2', 'n', 'n', 'c', '(', '-', 'c', '3', 'c', 'c', 'c', '(', 'S', '(', '=', 'O', ')', '(', '=', 'O', ')', 'N', '4', 'C', 'C', 'O', 'C', 'C', '4', ')', 'c', 'c', '3', ')', 'n', '2', 'C', ')', 'C', '1']</t>
+  </si>
+  <si>
+    <t>[[1 0 0 ... 0 0 0]
+ [0 1 0 ... 0 0 0]
+ [0 0 1 ... 0 0 0]
+ ...
+ [0 0 0 ... 0 0 0]
+ [1 0 0 ... 0 0 0]
+ [0 0 1 ... 0 0 0]]</t>
+  </si>
+  <si>
+    <t>CC[C@@]1(C(=O)c2ccc(C)cc2)[C@H]2c3cc(Br)ccc3OC(=O)[C@]21C(=O)OC</t>
+  </si>
+  <si>
+    <t>['C', 'C', '[C@@]', '1', '(', 'C', '(', '=', 'O', ')', 'c', '2', 'c', 'c', 'c', '(', 'C', ')', 'c', 'c', '2', ')', '[C@H]', '2', 'c', '3', 'c', 'c', '(', 'Br', ')', 'c', 'c', 'c', '3', 'O', 'C', '(', '=', 'O', ')', '[C@]', '2', '1', 'C', '(', '=', 'O', ')', 'O', 'C']</t>
+  </si>
+  <si>
+    <t>[[1 0 0 ... 0 0 0]
+ [1 0 0 ... 0 0 0]
+ [0 0 0 ... 0 0 0]
+ ...
+ [0 0 0 ... 0 0 0]
+ [0 0 0 ... 0 0 0]
+ [0 0 0 ... 0 0 0]]</t>
+  </si>
+  <si>
+    <t>Oc1c([C@@H](Nc2cccc(Cl)c2)c2ccncc2)ccc2cccnc12</t>
+  </si>
+  <si>
+    <t>['O', 'c', '1', 'c', '(', '[C@@H]', '(', 'N', 'c', '2', 'c', 'c', 'c', 'c', '(', 'Cl', ')', 'c', '2', ')', 'c', '2', 'c', 'c', 'n', 'c', 'c', '2', ')', 'c', 'c', 'c', '2', 'c', 'c', 'c', 'n', 'c', '1', '2']</t>
+  </si>
+  <si>
+    <t>[[0 0 0 ... 0 0 0]
+ [0 0 0 ... 0 0 0]
+ [0 0 1 ... 0 0 0]
+ ...
+ [0 0 0 ... 0 0 0]
+ [0 0 0 ... 0 0 0]
+ [0 0 0 ... 0 0 0]]</t>
   </si>
 </sst>
 </file>
@@ -274,13 +133,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>2857500</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>2857500</xdr:rowOff>
@@ -300,7 +159,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="190500"/>
+          <a:off x="4267200" y="190500"/>
           <a:ext cx="2857500" cy="2857500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -312,13 +171,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>2857500</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>2857500</xdr:rowOff>
@@ -338,7 +197,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="4000500"/>
+          <a:off x="4267200" y="4000500"/>
           <a:ext cx="2857500" cy="2857500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -350,13 +209,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>2857500</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>2857500</xdr:rowOff>
@@ -376,7 +235,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="7810500"/>
+          <a:off x="4267200" y="7810500"/>
           <a:ext cx="2857500" cy="2857500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -674,105 +533,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="8" max="8" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="300" customHeight="1">
-      <c r="B2" t="s">
-        <v>7</v>
+    <row r="2" spans="1:8" ht="300" customHeight="1">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>479.166096408</v>
       </c>
       <c r="C2">
-        <v>403.153206152</v>
+        <v>1.8536</v>
       </c>
       <c r="D2">
-        <v>4.2014</v>
-      </c>
-      <c r="E2">
-        <v>101.34</v>
+        <v>97.63</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="300" customHeight="1">
-      <c r="B3" t="s">
-        <v>10</v>
+    <row r="3" spans="1:8" ht="300" customHeight="1">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>442.041585808</v>
       </c>
       <c r="C3">
-        <v>360.07060074809</v>
+        <v>4.21242</v>
       </c>
       <c r="D3">
-        <v>1.385</v>
-      </c>
-      <c r="E3">
-        <v>37.64</v>
+        <v>69.67</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="300" customHeight="1">
-      <c r="B4" t="s">
-        <v>13</v>
+    <row r="4" spans="1:8" ht="300" customHeight="1">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>361.098189812</v>
       </c>
       <c r="C4">
-        <v>278.199428072</v>
+        <v>5.1903</v>
       </c>
       <c r="D4">
-        <v>2.0344</v>
-      </c>
-      <c r="E4">
-        <v>40.62</v>
+        <v>58.04</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Molecules-data/smiles_prop_3xtr_WithTokenMol.xlsx
+++ b/Molecules-data/smiles_prop_3xtr_WithTokenMol.xlsx
@@ -40,49 +40,175 @@
     <t>ROMol</t>
   </si>
   <si>
-    <t>C[C@@H]1CCCN(C(=O)CSc2nnc(-c3ccc(S(=O)(=O)N4CCOCC4)cc3)n2C)C1</t>
-  </si>
-  <si>
-    <t>['C', '[C@@H]', '1', 'C', 'C', 'C', 'N', '(', 'C', '(', '=', 'O', ')', 'C', 'S', 'c', '2', 'n', 'n', 'c', '(', '-', 'c', '3', 'c', 'c', 'c', '(', 'S', '(', '=', 'O', ')', '(', '=', 'O', ')', 'N', '4', 'C', 'C', 'O', 'C', 'C', '4', ')', 'c', 'c', '3', ')', 'n', '2', 'C', ')', 'C', '1']</t>
-  </si>
-  <si>
-    <t>[[1 0 0 ... 0 0 0]
- [0 1 0 ... 0 0 0]
- [0 0 1 ... 0 0 0]
- ...
- [0 0 0 ... 0 0 0]
- [1 0 0 ... 0 0 0]
- [0 0 1 ... 0 0 0]]</t>
-  </si>
-  <si>
-    <t>CC[C@@]1(C(=O)c2ccc(C)cc2)[C@H]2c3cc(Br)ccc3OC(=O)[C@]21C(=O)OC</t>
-  </si>
-  <si>
-    <t>['C', 'C', '[C@@]', '1', '(', 'C', '(', '=', 'O', ')', 'c', '2', 'c', 'c', 'c', '(', 'C', ')', 'c', 'c', '2', ')', '[C@H]', '2', 'c', '3', 'c', 'c', '(', 'Br', ')', 'c', 'c', 'c', '3', 'O', 'C', '(', '=', 'O', ')', '[C@]', '2', '1', 'C', '(', '=', 'O', ')', 'O', 'C']</t>
-  </si>
-  <si>
-    <t>[[1 0 0 ... 0 0 0]
- [1 0 0 ... 0 0 0]
- [0 0 0 ... 0 0 0]
- ...
- [0 0 0 ... 0 0 0]
- [0 0 0 ... 0 0 0]
- [0 0 0 ... 0 0 0]]</t>
-  </si>
-  <si>
-    <t>Oc1c([C@@H](Nc2cccc(Cl)c2)c2ccncc2)ccc2cccnc12</t>
-  </si>
-  <si>
-    <t>['O', 'c', '1', 'c', '(', '[C@@H]', '(', 'N', 'c', '2', 'c', 'c', 'c', 'c', '(', 'Cl', ')', 'c', '2', ')', 'c', '2', 'c', 'c', 'n', 'c', 'c', '2', ')', 'c', 'c', 'c', '2', 'c', 'c', 'c', 'n', 'c', '1', '2']</t>
-  </si>
-  <si>
-    <t>[[0 0 0 ... 0 0 0]
- [0 0 0 ... 0 0 0]
- [0 0 1 ... 0 0 0]
- ...
- [0 0 0 ... 0 0 0]
- [0 0 0 ... 0 0 0]
- [0 0 0 ... 0 0 0]]</t>
+    <t>COC(=O)c1ccc(/C=c2\sc3nc(-c4ccc(C)cc4)nn3c2=O)cc1</t>
+  </si>
+  <si>
+    <t>['C', 'O', 'C', '(', '=', 'O', ')', 'c', '1', 'c', 'c', 'c', '(', '/', 'C', '=', 'c', '2', '\\', 's', 'c', '3', 'n', 'c', '(', '-', 'c', '4', 'c', 'c', 'c', '(', 'C', ')', 'c', 'c', '4', ')', 'n', 'n', '3', 'c', '2', '=', 'O', ')', 'c', 'c', '1']</t>
+  </si>
+  <si>
+    <t>[[1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0]
+ [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0]
+ [0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0]
+ [0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0]]</t>
+  </si>
+  <si>
+    <t>CCOc1ccc(C(=O)Nc2cccc(-c3nc4ncccc4o3)c2C)cc1</t>
+  </si>
+  <si>
+    <t>['C', 'C', 'O', 'c', '1', 'c', 'c', 'c', '(', 'C', '(', '=', 'O', ')', 'N', 'c', '2', 'c', 'c', 'c', 'c', '(', '-', 'c', '3', 'n', 'c', '4', 'n', 'c', 'c', 'c', 'c', '4', 'o', '3', ')', 'c', '2', 'C', ')', 'c', 'c', '1']</t>
+  </si>
+  <si>
+    <t>[[1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0]
+ [0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0]
+ [0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0]
+ [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]]</t>
+  </si>
+  <si>
+    <t>Cc1ccc(C(=O)C[C@]2(O)C(=O)N(CCc3ccccc3)c3ccccc32)cc1</t>
+  </si>
+  <si>
+    <t>['C', 'c', '1', 'c', 'c', 'c', '(', 'C', '(', '=', 'O', ')', 'C', '[C@]', '2', '(', 'O', ')', 'C', '(', '=', 'O', ')', 'N', '(', 'C', 'C', 'c', '3', 'c', 'c', 'c', 'c', 'c', '3', ')', 'c', '3', 'c', 'c', 'c', 'c', 'c', '3', '2', ')', 'c', 'c', '1']</t>
+  </si>
+  <si>
+    <t>[[1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1]
+ [0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0]
+ [0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0]
+ [0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0]
+ [0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0]]</t>
   </si>
 </sst>
 </file>
@@ -573,13 +699,13 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>479.166096408</v>
+        <v>377.08341234</v>
       </c>
       <c r="C2">
-        <v>1.8536</v>
+        <v>2.46072</v>
       </c>
       <c r="D2">
-        <v>97.63</v>
+        <v>73.56</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -596,13 +722,13 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>442.041585808</v>
+        <v>373.142641468</v>
       </c>
       <c r="C3">
-        <v>4.21242</v>
+        <v>4.84922</v>
       </c>
       <c r="D3">
-        <v>69.67</v>
+        <v>77.25</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -619,13 +745,13 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>361.098189812</v>
+        <v>385.167793596</v>
       </c>
       <c r="C4">
-        <v>5.1903</v>
+        <v>4.04492</v>
       </c>
       <c r="D4">
-        <v>58.04</v>
+        <v>57.61</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>

--- a/Molecules-data/smiles_prop_3xtr_WithTokenMol.xlsx
+++ b/Molecules-data/smiles_prop_3xtr_WithTokenMol.xlsx
@@ -40,175 +40,184 @@
     <t>ROMol</t>
   </si>
   <si>
-    <t>COC(=O)c1ccc(/C=c2\sc3nc(-c4ccc(C)cc4)nn3c2=O)cc1</t>
-  </si>
-  <si>
-    <t>['C', 'O', 'C', '(', '=', 'O', ')', 'c', '1', 'c', 'c', 'c', '(', '/', 'C', '=', 'c', '2', '\\', 's', 'c', '3', 'n', 'c', '(', '-', 'c', '4', 'c', 'c', 'c', '(', 'C', ')', 'c', 'c', '4', ')', 'n', 'n', '3', 'c', '2', '=', 'O', ')', 'c', 'c', '1']</t>
-  </si>
-  <si>
-    <t>[[1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0]
- [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0]
- [0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0]
- [0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0]]</t>
-  </si>
-  <si>
-    <t>CCOc1ccc(C(=O)Nc2cccc(-c3nc4ncccc4o3)c2C)cc1</t>
-  </si>
-  <si>
-    <t>['C', 'C', 'O', 'c', '1', 'c', 'c', 'c', '(', 'C', '(', '=', 'O', ')', 'N', 'c', '2', 'c', 'c', 'c', 'c', '(', '-', 'c', '3', 'n', 'c', '4', 'n', 'c', 'c', 'c', 'c', '4', 'o', '3', ')', 'c', '2', 'C', ')', 'c', 'c', '1']</t>
-  </si>
-  <si>
-    <t>[[1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0]
- [0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0]
- [0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0]
- [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]]</t>
-  </si>
-  <si>
-    <t>Cc1ccc(C(=O)C[C@]2(O)C(=O)N(CCc3ccccc3)c3ccccc32)cc1</t>
-  </si>
-  <si>
-    <t>['C', 'c', '1', 'c', 'c', 'c', '(', 'C', '(', '=', 'O', ')', 'C', '[C@]', '2', '(', 'O', ')', 'C', '(', '=', 'O', ')', 'N', '(', 'C', 'C', 'c', '3', 'c', 'c', 'c', 'c', 'c', '3', ')', 'c', '3', 'c', 'c', 'c', 'c', 'c', '3', '2', ')', 'c', 'c', '1']</t>
-  </si>
-  <si>
-    <t>[[1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1]
- [0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0]
- [0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0]
- [0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0]
- [0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0]
- [0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
- [0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0]]</t>
+    <t>O=Cc1cc2cccc3c2n(c1=O)CCC3</t>
+  </si>
+  <si>
+    <t>['O', '=', 'C', 'c', '1', 'c', 'c', '2', 'c', 'c', 'c', 'c', '3', 'c', '2', 'n', '(', 'c', '1', '=', 'O', ')', 'C', 'C', 'C', '3']</t>
+  </si>
+  <si>
+    <t>[[1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0]
+ [0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0]
+ [0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]]</t>
+  </si>
+  <si>
+    <t>CC(C)(C)[C@H]1CCc2c(sc(NC(=O)c3ccc4c(c3)OCO4)c2C(N)=O)C1</t>
+  </si>
+  <si>
+    <t>['C', 'C', '(', 'C', ')', '(', 'C', ')', '[C@H]', '1', 'C', 'C', 'c', '2', 'c', '(', 's', 'c', '(', 'N', 'C', '(', '=', 'O', ')', 'c', '3', 'c', 'c', 'c', '4', 'c', '(', 'c', '3', ')', 'O', 'C', 'O', '4', ')', 'c', '2', 'C', '(', 'N', ')', '=', 'O', ')', 'C', '1']</t>
+  </si>
+  <si>
+    <t>[[0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0]
+ [0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0]
+ [0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0]
+ [0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0]
+ [0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0]
+ [0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0]
+ [0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0]
+ [0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0]
+ [0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0]
+ [0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0]
+ [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0]
+ [0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0]
+ [0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0]
+ [0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0]
+ [0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]]</t>
+  </si>
+  <si>
+    <t>Cc1ccc(S[C@@H](C)C(=O)Nc2cccc(C(F)(F)F)c2)cc1</t>
+  </si>
+  <si>
+    <t>['C', 'c', '1', 'c', 'c', 'c', '(', 'S', '[C@@H]', '(', 'C', ')', 'C', '(', '=', 'O', ')', 'N', 'c', '2', 'c', 'c', 'c', 'c', '(', 'C', '(', 'F', ')', '(', 'F', ')', 'F', ')', 'c', '2', ')', 'c', 'c', '1']</t>
+  </si>
+  <si>
+    <t>[[0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0]
+ [0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0]
+ [0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0]
+ [0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0]
+ [0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0]
+ [0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0]
+ [0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1]
+ [0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1]
+ [0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1]
+ [0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0]
+ [0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0]
+ [0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]]</t>
   </si>
 </sst>
 </file>
@@ -699,13 +708,13 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>377.08341234</v>
+        <v>213.078978592</v>
       </c>
       <c r="C2">
-        <v>2.46072</v>
+        <v>1.7602</v>
       </c>
       <c r="D2">
-        <v>73.56</v>
+        <v>39.07</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -722,13 +731,13 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>373.142641468</v>
+        <v>400.145678248</v>
       </c>
       <c r="C3">
-        <v>4.84922</v>
+        <v>3.979</v>
       </c>
       <c r="D3">
-        <v>77.25</v>
+        <v>90.65000000000001</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -745,13 +754,13 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>385.167793596</v>
+        <v>339.090469792</v>
       </c>
       <c r="C4">
-        <v>4.04492</v>
+        <v>5.13312</v>
       </c>
       <c r="D4">
-        <v>57.61</v>
+        <v>29.1</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
